--- a/ExcelExporter/Excel/AIConfig.xlsx
+++ b/ExcelExporter/Excel/AIConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NBGLS-Server\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Tools\ExcelExporter\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716AC6D4-B910-40BA-8893-EE8406454755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5FF64-1A40-42B3-8D30-9282FBA232B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2805" windowWidth="22680" windowHeight="12150" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -65,13 +62,7 @@
     <t>AI_Attack</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
     <t>AI_XunLuo</t>
-  </si>
-  <si>
-    <t>巡逻</t>
   </si>
 </sst>
 </file>
@@ -424,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -436,80 +427,69 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>B5*100+C5</f>
         <v>101</v>
@@ -521,13 +501,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>B6*100+C6</f>
         <v>102</v>
@@ -539,10 +516,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -553,10 +527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,80 +539,69 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>B5*100+C5</f>
         <v>201</v>
@@ -650,10 +613,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
